--- a/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Equal principal payments</t>
   </si>
   <si>
-    <t xml:space="preserve">  01-01-2015</t>
-  </si>
-  <si>
     <t>preclosureinterestcalculationrule</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01 January 2015</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,10 +672,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,185 +776,193 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -976,7 +987,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>57</v>

--- a/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>checked</t>
   </si>
   <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Per month</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -310,6 +310,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,20 +663,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -683,7 +684,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -691,7 +692,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
@@ -699,7 +700,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -707,7 +708,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -715,15 +716,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -731,111 +732,111 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -843,7 +844,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5">
         <v>10000</v>
@@ -851,106 +852,106 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -974,10 +975,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/149-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -140,9 +140,6 @@
     <t>Declining Balance</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -311,6 +311,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +620,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,10 +669,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +744,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,8 +759,8 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
+      <c r="B17" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,10 +797,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +845,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5">
         <v>10000</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>37</v>
@@ -863,7 +864,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +880,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +896,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +904,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +912,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +920,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +928,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +936,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +952,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -975,10 +976,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
